--- a/output/【河洛話注音】丘陵歌．孔子.xlsx
+++ b/output/【河洛話注音】丘陵歌．孔子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F247F4-13F7-4BCD-9A51-23C0D43D2ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10DF8C-56AC-4FE1-A048-BDBEDDEE3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="17280" windowHeight="12870" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="5" activeTab="7" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -2359,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76540FD-AB04-47B8-9C7F-D16F39B4CCCD}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -6349,7 +6349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682AA0F8-92E9-4DB9-9C48-A207F038845B}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <sheetData>

--- a/output/【河洛話注音】丘陵歌．孔子.xlsx
+++ b/output/【河洛話注音】丘陵歌．孔子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10DF8C-56AC-4FE1-A048-BDBEDDEE3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F71313-74BF-44B4-AA54-0E370F906B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="5" activeTab="7" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -2359,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76540FD-AB04-47B8-9C7F-D16F39B4CCCD}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -6349,7 +6349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682AA0F8-92E9-4DB9-9C48-A207F038845B}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0"/>
+    <sheetView topLeftCell="A93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <sheetData>

--- a/output/【河洛話注音】丘陵歌．孔子.xlsx
+++ b/output/【河洛話注音】丘陵歌．孔子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F71313-74BF-44B4-AA54-0E370F906B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3D9B5-F8BD-48C8-A8F0-277FA95BD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{9DB1A9F6-25FF-5F45-93E5-1C43D7545CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="611">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>ue</t>
-  </si>
-  <si>
-    <t>li7</t>
   </si>
   <si>
     <t>te5</t>
@@ -719,9 +716,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦五入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -734,9 +728,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩七喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -756,9 +747,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;檜五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -927,9 +915,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧㄚˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨㄢˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -942,9 +927,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄨㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -964,9 +946,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1129,9 +1108,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;oán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1144,9 +1120,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1166,9 +1139,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hôe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tê&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1410,9 +1380,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzía&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǔan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1425,9 +1392,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1447,9 +1411,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;húe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dé&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1609,9 +1570,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ci1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jia5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1624,9 +1582,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1646,9 +1601,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;te5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1814,9 +1766,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rt&gt;ci1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rt&gt;jia5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rt&gt;uan2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1829,9 +1778,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1853,9 +1799,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rt&gt;li7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;題&lt;/rb&gt;&lt;rt&gt;te5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1947,6 +1890,66 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湲&lt;/rb&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t>lu7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍七柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzíok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rt&gt;jiok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慮&lt;/rb&gt;&lt;rt&gt;lu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2368,12 +2371,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2383,17 +2386,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2403,27 +2406,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2433,42 +2436,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2478,22 +2481,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -2503,27 +2506,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2533,22 +2536,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2558,27 +2561,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -2588,22 +2591,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -2613,27 +2616,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -2643,22 +2646,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -2668,27 +2671,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -2698,22 +2701,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2723,27 +2726,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -2753,22 +2756,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -2778,27 +2781,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2808,22 +2811,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -2833,27 +2836,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -2863,22 +2866,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2888,12 +2891,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3076,12 +3079,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3091,17 +3094,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3111,27 +3114,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3141,42 +3144,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3186,22 +3189,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3211,27 +3214,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3241,22 +3244,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>499</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3266,27 +3269,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>504</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3296,22 +3299,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -3321,27 +3324,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>512</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -3351,22 +3354,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -3376,27 +3379,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3406,22 +3409,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -3431,27 +3434,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -3461,22 +3464,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -3486,27 +3489,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -3516,22 +3519,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -3541,27 +3544,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -3571,22 +3574,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -3596,12 +3599,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3623,12 +3626,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3638,17 +3641,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3658,27 +3661,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3688,42 +3691,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3733,22 +3736,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3758,27 +3761,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3788,22 +3791,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>435</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3813,27 +3816,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>440</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3843,22 +3846,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -3868,27 +3871,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>448</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -3898,22 +3901,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -3923,27 +3926,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3953,22 +3956,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -3978,27 +3981,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -4008,22 +4011,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -4033,27 +4036,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4063,22 +4066,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -4088,27 +4091,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -4118,22 +4121,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -4143,12 +4146,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4170,12 +4173,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4185,17 +4188,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4205,27 +4208,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4235,42 +4238,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4280,22 +4283,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4305,27 +4308,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4335,22 +4338,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>346</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4360,27 +4363,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -4390,22 +4393,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -4415,27 +4418,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>359</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -4445,22 +4448,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -4470,27 +4473,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4500,22 +4503,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -4525,27 +4528,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -4555,22 +4558,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -4580,27 +4583,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4610,22 +4613,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -4635,27 +4638,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -4665,22 +4668,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -4690,12 +4693,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4717,12 +4720,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4732,17 +4735,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4752,27 +4755,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4782,42 +4785,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4827,22 +4830,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4852,27 +4855,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4882,22 +4885,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>346</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4907,27 +4910,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -4937,22 +4940,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -4962,27 +4965,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>359</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -4992,22 +4995,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -5017,27 +5020,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5047,22 +5050,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -5072,27 +5075,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -5102,22 +5105,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -5127,27 +5130,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -5157,22 +5160,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -5182,27 +5185,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -5212,22 +5215,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -5237,12 +5240,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5264,12 +5267,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5279,17 +5282,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5299,27 +5302,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5329,42 +5332,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -5374,22 +5377,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5399,27 +5402,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5429,22 +5432,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>281</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5454,27 +5457,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>286</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -5484,22 +5487,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -5509,27 +5512,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>294</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -5539,22 +5542,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -5564,27 +5567,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5594,22 +5597,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -5619,27 +5622,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -5649,22 +5652,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -5674,27 +5677,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -5704,22 +5707,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -5729,27 +5732,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -5759,22 +5762,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -5784,12 +5787,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5811,12 +5814,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.5">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5826,17 +5829,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5846,27 +5849,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5876,42 +5879,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -5921,22 +5924,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5946,27 +5949,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5976,22 +5979,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6001,27 +6004,27 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -6031,22 +6034,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6056,27 +6059,27 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>227</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -6086,22 +6089,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -6111,27 +6114,27 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -6141,22 +6144,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -6166,27 +6169,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -6196,22 +6199,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -6221,27 +6224,27 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -6251,22 +6254,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -6276,27 +6279,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -6306,22 +6309,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -6331,12 +6334,12 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6838,16 +6841,16 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
         <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>591</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -6948,16 +6951,16 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -7123,13 +7126,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>592</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -7148,7 +7151,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
         <v>109</v>
@@ -7188,10 +7191,10 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
         <v>157</v>
-      </c>
-      <c r="C56" t="s">
-        <v>158</v>
       </c>
       <c r="D56" t="s">
         <v>124</v>
@@ -7208,13 +7211,13 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -7238,7 +7241,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>115</v>
@@ -7258,13 +7261,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -7323,13 +7326,13 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
         <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -7343,13 +7346,13 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
         <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -7383,7 +7386,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>94</v>
@@ -7433,13 +7436,13 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
         <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -7453,13 +7456,13 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" t="s">
         <v>171</v>
       </c>
-      <c r="C73" t="s">
-        <v>172</v>
-      </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -7473,7 +7476,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
         <v>94</v>
@@ -7498,13 +7501,13 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
         <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -7538,13 +7541,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -7558,7 +7561,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" t="s">
         <v>115</v>
@@ -7588,13 +7591,13 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -7608,13 +7611,13 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
         <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E83">
         <v>8</v>
@@ -7628,13 +7631,13 @@
         <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
         <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -7673,7 +7676,7 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -7698,7 +7701,7 @@
         <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
         <v>136</v>
@@ -7718,7 +7721,7 @@
         <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
         <v>115</v>
@@ -7748,7 +7751,7 @@
         <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
         <v>115</v>
@@ -7788,7 +7791,7 @@
         <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
         <v>115</v>
@@ -7808,13 +7811,13 @@
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -7833,10 +7836,10 @@
         <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D98" t="s">
         <v>137</v>
@@ -7853,7 +7856,7 @@
         <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
         <v>115</v>
@@ -7873,13 +7876,13 @@
         <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
         <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -7893,7 +7896,7 @@
         <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
         <v>111</v>
@@ -8090,16 +8093,16 @@
         <v>34</v>
       </c>
       <c r="B10">
-        <v>6946</v>
+        <v>22828</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8107,13 +8110,13 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>13175</v>
+        <v>6946</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8124,13 +8127,13 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>22828</v>
+        <v>13175</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8243,16 +8246,16 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>19410</v>
+        <v>20164</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8260,13 +8263,13 @@
         <v>41</v>
       </c>
       <c r="B20">
-        <v>20164</v>
+        <v>19410</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -8385,7 +8388,7 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8402,7 +8405,7 @@
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8487,7 +8490,7 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8504,7 +8507,7 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8521,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -8538,7 +8541,7 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8555,7 +8558,7 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8572,7 +8575,7 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8589,7 +8592,7 @@
         <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -8606,7 +8609,7 @@
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -8623,7 +8626,7 @@
         <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -8640,7 +8643,7 @@
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -8657,7 +8660,7 @@
         <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -8674,7 +8677,7 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -8691,7 +8694,7 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -8708,7 +8711,7 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -8725,7 +8728,7 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47">
         <v>0</v>
